--- a/Document/EXCEL/추석 계획-꼭 보면서 해라.xlsx
+++ b/Document/EXCEL/추석 계획-꼭 보면서 해라.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Documents\GitHub\2uzubook\Document\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -152,13 +152,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>데이터베이스 함수 구현
+(특정 학생의 레주메 정보를 모두 불러오는)-한눈에 보기 페이지를 구현하기 위하여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>회원가입창 비밀번호 확인 및
  중복 아이디 확인 처리 연동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스 함수 구현
-(특정 학생의 레주메 정보를 모두 불러오는)-한눈에 보기 페이지를 구현하기 위하여</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +198,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +222,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -267,7 +280,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,8 +290,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,10 +337,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
+    <cellStyle name="좋음" xfId="3" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -633,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -754,7 +774,7 @@
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="2"/>
@@ -789,10 +809,10 @@
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
@@ -830,7 +850,7 @@
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>

--- a/Document/EXCEL/추석 계획-꼭 보면서 해라.xlsx
+++ b/Document/EXCEL/추석 계획-꼭 보면서 해라.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Documents\GitHub\2uzubook\Document\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\2uzubook\Document\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9888"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,11 +99,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>검색 입력창 키워드 형식으로 구현
-(이게 완료되어야 김소연이 서블릿 연동을 하므로 최대한 빨리 해야한다.)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>전체적인 페이지 오류 수정(잘못된 url링킹등)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -125,10 +120,6 @@
   </si>
   <si>
     <t>유의점: 이 일정은 대략적인 틀의 형태로 짜놓은 것이며 납기일을 반드시 지켜주길 바란다.(다만 일정보다 일찍 끝내는 건 상관없다-오히려 환영)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">팀원들의 작업현황 확인및 점검 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -161,12 +152,21 @@
  중복 아이디 확인 처리 연동</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>검색 입력창 키워드 형식으로 구현
+(이게 완료되어야 김소연이 서블릿 연동을 하므로 최대한 빨리 해야한다.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">팀원들의 작업현황 확인및 점검 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +193,30 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -294,51 +318,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -372,7 +402,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -650,313 +680,319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.296875" customWidth="1"/>
-    <col min="4" max="4" width="39.59765625" customWidth="1"/>
-    <col min="5" max="5" width="36.8984375" customWidth="1"/>
-    <col min="6" max="6" width="38.8984375" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" customWidth="1"/>
-    <col min="8" max="8" width="22.796875" customWidth="1"/>
-    <col min="9" max="9" width="25.69921875" customWidth="1"/>
-    <col min="10" max="10" width="27.296875" customWidth="1"/>
-    <col min="11" max="11" width="25.296875" customWidth="1"/>
-    <col min="12" max="12" width="22.09765625" customWidth="1"/>
-    <col min="13" max="13" width="21.796875" customWidth="1"/>
-    <col min="14" max="14" width="19.8984375" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.8984375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43006</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43007</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43008</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43009</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43010</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43011</v>
+      </c>
+      <c r="I4" s="4">
+        <v>43012</v>
+      </c>
+      <c r="J4" s="4">
+        <v>43013</v>
+      </c>
+      <c r="K4" s="4">
+        <v>43014</v>
+      </c>
+      <c r="L4" s="4">
+        <v>43015</v>
+      </c>
+      <c r="M4" s="4">
+        <v>43016</v>
+      </c>
+      <c r="N4" s="4">
+        <v>43017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43006</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43007</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43008</v>
-      </c>
-      <c r="F4" s="3">
-        <v>43009</v>
-      </c>
-      <c r="G4" s="3">
-        <v>43010</v>
-      </c>
-      <c r="H4" s="3">
-        <v>43011</v>
-      </c>
-      <c r="I4" s="3">
-        <v>43012</v>
-      </c>
-      <c r="J4" s="3">
-        <v>43013</v>
-      </c>
-      <c r="K4" s="3">
-        <v>43014</v>
-      </c>
-      <c r="L4" s="3">
-        <v>43015</v>
-      </c>
-      <c r="M4" s="3">
-        <v>43016</v>
-      </c>
-      <c r="N4" s="3">
-        <v>43017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E6:F6"/>
@@ -966,11 +1002,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/EXCEL/추석 계획-꼭 보면서 해라.xlsx
+++ b/Document/EXCEL/추석 계획-꼭 보면서 해라.xlsx
@@ -318,10 +318,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -364,10 +367,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,315 +687,310 @@
   <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.69921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.09765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.8984375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.8984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.69921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.09765625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.8984375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>43006</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>43007</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>43008</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>43009</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>43010</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>43011</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>43012</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>43013</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>43014</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>43015</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="5">
         <v>43016</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>43017</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E6:F6"/>
@@ -1002,6 +1000,11 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/EXCEL/추석 계획-꼭 보면서 해라.xlsx
+++ b/Document/EXCEL/추석 계획-꼭 보면서 해라.xlsx
@@ -109,11 +109,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 베이스 함수 구현(검색함수)
-최대한 빨리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SearchServlet 에서 
 데이터베이스와 연동</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -159,6 +154,11 @@
   </si>
   <si>
     <t xml:space="preserve">팀원들의 작업현황 확인및 점검 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 베이스 함수 구현(검색함수)
+최대한 빨리 (반정도 진행한듯 -정현-)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -318,12 +318,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -686,311 +683,316 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.8984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.8984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.69921875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.296875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22.09765625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.8984375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.8984375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43006</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43007</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43008</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43009</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43010</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43011</v>
+      </c>
+      <c r="I4" s="4">
+        <v>43012</v>
+      </c>
+      <c r="J4" s="4">
+        <v>43013</v>
+      </c>
+      <c r="K4" s="4">
+        <v>43014</v>
+      </c>
+      <c r="L4" s="4">
+        <v>43015</v>
+      </c>
+      <c r="M4" s="4">
+        <v>43016</v>
+      </c>
+      <c r="N4" s="4">
+        <v>43017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5">
-        <v>43006</v>
-      </c>
-      <c r="D4" s="5">
-        <v>43007</v>
-      </c>
-      <c r="E4" s="5">
-        <v>43008</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43009</v>
-      </c>
-      <c r="G4" s="5">
-        <v>43010</v>
-      </c>
-      <c r="H4" s="5">
-        <v>43011</v>
-      </c>
-      <c r="I4" s="5">
-        <v>43012</v>
-      </c>
-      <c r="J4" s="5">
-        <v>43013</v>
-      </c>
-      <c r="K4" s="5">
-        <v>43014</v>
-      </c>
-      <c r="L4" s="5">
-        <v>43015</v>
-      </c>
-      <c r="M4" s="5">
-        <v>43016</v>
-      </c>
-      <c r="N4" s="5">
-        <v>43017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12" t="s">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E6:F6"/>
@@ -1000,13 +1002,9 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>